--- a/biology/Botanique/Forêt_domaniale_des_Blaches/Forêt_domaniale_des_Blaches.xlsx
+++ b/biology/Botanique/Forêt_domaniale_des_Blaches/Forêt_domaniale_des_Blaches.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_des_Blaches</t>
+          <t>Forêt_domaniale_des_Blaches</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Forêt domaniale des Blaches est une forêt domaniale française située dans le Nord du département de l'Isère, à environ une quinzaine de kilomètres au Sud-Est de la ville de Vienne
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_des_Blaches</t>
+          <t>Forêt_domaniale_des_Blaches</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Situation et accès
-La forêt des Blaches est un massif forestier de dimension modeste partagé entre les communes de Cour-et-Buis, d'Eyzin-Pinet et de Meyssiez, dans l'arrondissement de Vienne, département de l'Isère, en région Auvergne-Rhône-Alpes.
+          <t>Situation et accès</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt des Blaches est un massif forestier de dimension modeste partagé entre les communes de Cour-et-Buis, d'Eyzin-Pinet et de Meyssiez, dans l'arrondissement de Vienne, département de l'Isère, en région Auvergne-Rhône-Alpes.
 Ce massif est également situé au Nord-Ouest de la forêt de Bonnevaux, vaste ensemble forestier qui est en très grande partie une propriété privée et dont elle est la continuité. la forêt des Blaches est délimité par la Varèze au Sud et de la Gère au Nord, deux petits affluents de la rive gauche du Rhône, qui s'écoulent de façon parallèle, selon un axe Est-Ouest.
 Celle-ci est accessible en voiture depuis Vienne par l'ancienne route nationale 538 (RN 538) dite « route de Vienne à Marseille » et qui fut déclassée en route départementale (RD 538) après la réforme de 1972.
-Description et géologie
-Il s'agit d'une forêt domaniale[1] dont la gestion est assurée par l'ONF. Celle-ci occupe une partie de l'immense cône de déjection formé par les décombres des Alpes, étalé au tertiaire et profondément raviné durant l'ère quaternaire par les fleuves de glace, formant ainsi de grandes plaines uniformes dominées par des collines de formes allongées et parallèles les unes aux autres[2].
-Climat
-La forêt des Blaches, à l'instar du massif de Bonnevaux, est située dans une zone climatique de transition à tendance continentale avec des influences océaniques et méditerranéennes.
 </t>
         </is>
       </c>
@@ -532,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_des_Blaches</t>
+          <t>Forêt_domaniale_des_Blaches</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,18 +560,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Flore et faune</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Le massif est classé en zone naturelle d'intérêt écologique, faunistique et floristique (ZNIEFF) dans son ensemble et héberge de nombreuses espèces animales et végétales[3].
-Habitat forestier
-Les arbres de ce massif, situés dans des étages collinéens de faible altitude, sont, historiquement, des chênes pubescents, des chênes pédonculés (qui donnèrent leurs noms à la forêt), des hêtres[4],des châtaigners, mais aussi des colonies de pins noirs d'Autriche.
-Flore
-Immortelle commune (Helichrysum stoecha)̟
-Marguerite de la Saint-Michel (Aster amellus)
-Faune</t>
+          <t>Description et géologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une forêt domaniale dont la gestion est assurée par l'ONF. Celle-ci occupe une partie de l'immense cône de déjection formé par les décombres des Alpes, étalé au tertiaire et profondément raviné durant l'ère quaternaire par les fleuves de glace, formant ainsi de grandes plaines uniformes dominées par des collines de formes allongées et parallèles les unes aux autres.
+</t>
         </is>
       </c>
     </row>
@@ -568,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_des_Blaches</t>
+          <t>Forêt_domaniale_des_Blaches</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,12 +597,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Toponymie</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le terme de « Blache » est issu du gaulois blaca  signifiant « chêne blanc ou pubescent » et désigne les bois ou taillis de chênes blancs en usage dans le dauphiné et le Sud-Est de la France (Wiktionnaire:Blache)
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt des Blaches, à l'instar du massif de Bonnevaux, est située dans une zone climatique de transition à tendance continentale avec des influences océaniques et méditerranéennes.
 </t>
         </is>
       </c>
@@ -599,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_des_Blaches</t>
+          <t>Forêt_domaniale_des_Blaches</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,13 +634,155 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Flore et faune</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le massif est classé en zone naturelle d'intérêt écologique, faunistique et floristique (ZNIEFF) dans son ensemble et héberge de nombreuses espèces animales et végétales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_des_Blaches</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_des_Blaches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Flore et faune</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Habitat forestier</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les arbres de ce massif, situés dans des étages collinéens de faible altitude, sont, historiquement, des chênes pubescents, des chênes pédonculés (qui donnèrent leurs noms à la forêt), des hêtres,des châtaigners, mais aussi des colonies de pins noirs d'Autriche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_des_Blaches</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_des_Blaches</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Flore et faune</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Immortelle commune (Helichrysum stoecha)̟
+Marguerite de la Saint-Michel (Aster amellus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_des_Blaches</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_des_Blaches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Toponymie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme de « Blache » est issu du gaulois blaca  signifiant « chêne blanc ou pubescent » et désigne les bois ou taillis de chênes blancs en usage dans le dauphiné et le Sud-Est de la France (Wiktionnaire:Blache)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Forêt_domaniale_des_Blaches</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAt_domaniale_des_Blaches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Lieux remarquables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La tour de Pinet, un donjon ruiné de l'ancien château fort du XIIIe siècle se situe sur le territoire d'Eyzin-Pinet, en lisère septentrionale du massif forestier.
-Le tunnel de Meyssiez, achevé en 1993[5] est un tunnel ferroviaire de long de 1 911 mètres de la LGV Rhône-Alpes divisée en deux voies et qui permet aux trains de passer sous la forêt domaniale
+Le tunnel de Meyssiez, achevé en 1993 est un tunnel ferroviaire de long de 1 911 mètres de la LGV Rhône-Alpes divisée en deux voies et qui permet aux trains de passer sous la forêt domaniale
 </t>
         </is>
       </c>
